--- a/data/Laja.xlsx
+++ b/data/Laja.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/data/Laja.xlsx
+++ b/data/Laja.xlsx
@@ -543,7 +543,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>19/05/2021</t>
+          <t>20/05/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">

--- a/data/Laja.xlsx
+++ b/data/Laja.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Laja.xlsx
+++ b/data/Laja.xlsx
@@ -543,7 +543,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20/05/2021</t>
+          <t>19/05/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">

--- a/data/Laja.xlsx
+++ b/data/Laja.xlsx
@@ -679,7 +679,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Solek Chile Services SpA</t>
+          <t>ANDINA SOLAR 10 SPA</t>
         </is>
       </c>
       <c r="F7" t="n">

--- a/data/Laja.xlsx
+++ b/data/Laja.xlsx
@@ -1015,7 +1015,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Parque Eólico El Maitén SpA</t>
+          <t>Sonnedix Chile Holding SpA</t>
         </is>
       </c>
       <c r="F14" t="n">

--- a/data/Laja.xlsx
+++ b/data/Laja.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J113"/>
+  <dimension ref="A1:J114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque Eólico Rinconada</t>
+          <t>Proyecto de modificación para producir celulosa cruda en Planta Laja</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Energía Eólica Rinconada SpA</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>365000</v>
+        <v>186000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/08/2021</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152728835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160195500&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nueva Conexión y Ampliación S/E Celulosa Laja</t>
+          <t>Parque Eólico Rinconada</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CMPC PULP SpA</t>
+          <t>Energía Eólica Rinconada SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1560</v>
+        <v>365000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>20/08/2021</t>
+          <t>24/08/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152952129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152728835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Subestación La Señoraza 220/66 kV</t>
+          <t>Nueva Conexión y Ampliación S/E Celulosa Laja</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SOCIEDAD AUSTRAL DE TRANSMISION TRONCAL S.A.</t>
+          <t>CMPC PULP SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>9829</v>
+        <v>1560</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>19/05/2021</t>
+          <t>20/08/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151668789&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152952129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -591,17 +591,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>23/04/2021</t>
+          <t>19/05/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151506773&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151668789&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>24/03/2021</t>
+          <t>23/04/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151190945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151506773&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Laja</t>
+          <t>Subestación La Señoraza 220/66 kV</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,11 +679,11 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ANDINA SOLAR 10 SPA</t>
+          <t>SOCIEDAD AUSTRAL DE TRANSMISION TRONCAL S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>10000</v>
+        <v>9829</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -692,12 +692,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151183851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151190945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Andina Solar 10 SPA</t>
+          <t>ANDINA SOLAR 10 SPA</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -735,17 +735,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>22/04/2019</t>
+          <t>24/03/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143033199&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151183851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>Parque Fotovoltaico Laja</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,30 +770,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>Andina Solar 10 SPA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>9903</v>
+        <v>10000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>22/04/2019</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143033199&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>20000</v>
+        <v>9903</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de Clorato de Sodio entre la región del Biobío y de la Araucanía</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Comercial e Industrial Erco Chile Ltda.</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>03/11/2016</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131858199&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Parque Eólico Buenaventura</t>
+          <t>Transporte Ferroviario de Clorato de Sodio entre la región del Biobío y de la Araucanía</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,20 +914,20 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Eólica La Esperanza S.A.</t>
+          <t>Comercial e Industrial Erco Chile Ltda.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>56000</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>21/09/2016</t>
+          <t>03/11/2016</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131760438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131858199&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Parque Eólico Buenaventura</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,20 +962,20 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Eólica La Esperanza S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>10000</v>
+        <v>56000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>21/09/2016</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131760438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Parque Eólico El Maitén</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,20 +1010,20 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sonnedix Chile Holding SpA</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>22/02/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131182919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Parque Eólico El Maitén</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,20 +1058,20 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Sonnedix Chile Holding SpA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>40000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>22/02/2016</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131182919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1119,17 +1119,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>05/12/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>"AMPLIACION DE RUTAS PARA TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN TRANSPORTES TRANSVER LTDA"</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>17/11/2014</t>
+          <t>05/12/2014</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129535685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Parque Eólico Campo Lindo</t>
+          <t>"AMPLIACION DE RUTAS PARA TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN TRANSPORTES TRANSVER LTDA"</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,30 +1202,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Parque Eólico Campo Lindo SpA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>23/06/2014</t>
+          <t>17/11/2014</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129566652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129535685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Parque Eólico Campo Lindo</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,20 +1250,20 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Parque Eólico Campo Lindo SpA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1200</v>
+        <v>300000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>23/06/2014</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129566652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nuevo Cementerio Municipal de la Comuna de Laja</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,20 +1298,20 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Laja</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>13/08/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128446139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>Nuevo Cementerio Municipal de la Comuna de Laja</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>Ilustre Municipalidad de Laja</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>13/08/2013</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128446139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1650</v>
+        <v>200</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>18/08/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1739,21 +1739,21 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>04/08/2011</t>
+          <t>18/08/2011</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>04/08/2011</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión Eléctrica Laja1</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,30 +1874,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Eólico Monte Redondo SpA</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>10500</v>
+        <v>300</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>11/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4649336&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Sistema de Transmisión Eléctrica Laja1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,30 +1922,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Eólico Monte Redondo SpA</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>10500</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>11/06/2010</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4649336&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>22</v>
+        <v>377</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DIA Transporte Ferroviario de Petróleo desde Talcahuano hasta Mininco, Regiones del Bío Bío y La Araucanía (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>TRANSAP S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>15/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3789791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2223,17 +2223,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>22/04/2009</t>
+          <t>15/05/2009</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3716506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3789791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,36 +2248,40 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Modernización de Planta Laja</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
+          <t>DIA Transporte Ferroviario de Petróleo desde Talcahuano hasta Mininco, Regiones del Bío Bío y La Araucanía (e-seia)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>TRANSAP S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>400000</v>
+        <v>0</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>13/11/2008</t>
+          <t>22/04/2009</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3341231&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3716506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2292,30 +2296,26 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Modernización de Planta Laja</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>300</v>
+        <v>400000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>13/11/2008</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2325,7 +2325,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3341231&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2363,17 +2363,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2403,25 +2403,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1650</v>
+        <v>300</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2451,15 +2451,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2469,7 +2469,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2484,7 +2484,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2507,17 +2507,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2547,15 +2547,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2565,7 +2565,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2595,15 +2595,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2613,7 +2613,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL DISEÑO DE PROYECTO MDL CENTRAL HIDROELÉCTRICA LAJA Modif-CH-Laja (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2638,30 +2638,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Eólico Monte Redondo SpA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>50000</v>
+        <v>20</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>07/03/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2763295&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2676,7 +2676,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>MODIFICACIONES AL DISEÑO DE PROYECTO MDL CENTRAL HIDROELÉCTRICA LAJA Modif-CH-Laja (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2686,20 +2686,20 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Eólico Monte Redondo SpA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>07/03/2008</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2709,7 +2709,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2763295&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2724,7 +2724,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2739,15 +2739,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>429</v>
+        <v>0</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2757,7 +2757,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2772,7 +2772,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2787,25 +2787,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2820,7 +2820,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Laja (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2830,30 +2830,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>José Pinto Albornoz</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>14/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2351661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Plan Regulador Comunal de Laja (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2878,30 +2878,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>José Pinto Albornoz</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>14/09/2007</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2351661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2931,25 +2931,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2964,7 +2964,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2987,17 +2987,17 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3027,25 +3027,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3060,7 +3060,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3075,25 +3075,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>26/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3108,7 +3108,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
+          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3131,17 +3131,17 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>14/02/2007</t>
+          <t>26/02/2007</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3171,15 +3171,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>14/02/2007</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3189,7 +3189,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3204,7 +3204,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3219,25 +3219,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Transportes Molina y Compañia Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>08/02/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3252,7 +3252,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3267,25 +3267,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Transportes Molina y Compañia Limitada</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>08/02/2007</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3300,7 +3300,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3323,17 +3323,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3348,7 +3348,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3363,25 +3363,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3396,7 +3396,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3411,25 +3411,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3444,7 +3444,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3459,25 +3459,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3515,17 +3515,17 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3540,7 +3540,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3555,25 +3555,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3588,7 +3588,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3603,25 +3603,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3636,7 +3636,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3651,25 +3651,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3684,7 +3684,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3699,7 +3699,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -3707,17 +3707,17 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3732,7 +3732,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3747,25 +3747,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>24/05/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3780,7 +3780,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Clorato de Sodio a las Plantas de CMPC Celulosa en las Regiones VIII y IX (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3795,15 +3795,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>28/04/2006</t>
+          <t>24/05/2006</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3813,7 +3813,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1422307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Clorato de Sodio a las Plantas de CMPC Celulosa en las Regiones VIII y IX (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3843,25 +3843,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>28/04/2006</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1422307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3899,17 +3899,17 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3939,25 +3939,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3972,7 +3972,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3987,25 +3987,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Joel Salamanca Saldaña</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>16/02/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4020,30 +4020,30 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>central hidroelectrica laja</t>
+          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Eólico Monte Redondo SpA</t>
+          <t>Joel Salamanca Saldaña</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>25000</v>
+        <v>200</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>26/01/2006</t>
+          <t>16/02/2006</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4053,7 +4053,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1373483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4068,30 +4068,30 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>central hidroelectrica laja</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Eólico Monte Redondo SpA</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>26/01/2006</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4101,7 +4101,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1373483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4116,7 +4116,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4131,15 +4131,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>3517</v>
+        <v>0</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4149,7 +4149,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4179,15 +4179,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4197,7 +4197,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4212,7 +4212,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4227,15 +4227,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4245,7 +4245,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4260,7 +4260,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de Soda Cáustica desde Oxy-Chile en Talcahuano, hasta las Plantas Laja, Santa Fe y Pacífico de CMPC Celulosa en las Regiones VIII y IX (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4275,15 +4275,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>TRANSAP S.A.</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>30/09/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4293,7 +4293,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1044218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4308,7 +4308,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Ferroviario de Soda Cáustica desde Oxy-Chile en Talcahuano, hasta las Plantas Laja, Santa Fe y Pacífico de CMPC Celulosa en las Regiones VIII y IX (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4323,15 +4323,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>TRANSAP S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>30/09/2005</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4341,7 +4341,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1044218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4371,11 +4371,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4404,7 +4404,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4419,11 +4419,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4452,7 +4452,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR COMUNAL LAJA (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4462,30 +4462,30 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>José Pinto Albornoz</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>02/08/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=655951&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4500,7 +4500,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR COMUNAL LAJA (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4510,30 +4510,30 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>José Pinto Albornoz</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>02/08/2005</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=655951&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4548,7 +4548,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4563,15 +4563,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4581,7 +4581,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -4619,17 +4619,17 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4644,7 +4644,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4659,15 +4659,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4677,7 +4677,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4707,25 +4707,25 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4740,7 +4740,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4755,15 +4755,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4773,7 +4773,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR LAJA (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4798,20 +4798,20 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Laja</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>27/07/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4821,7 +4821,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=408447&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cargas Clase 5.1 (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR LAJA (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4846,30 +4846,30 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>ABRIL Y SOTO LOGISTICA LIMITADA</t>
+          <t>Ilustre Municipalidad de Laja</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>109</v>
+        <v>3</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>23/07/2004</t>
+          <t>27/07/2004</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=405675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=408447&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador de Laja (e-seia)</t>
+          <t>Almacenaje y Transporte de Cargas Clase 5.1 (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4894,20 +4894,20 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Laja</t>
+          <t>ABRIL Y SOTO LOGISTICA LIMITADA</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>06/01/2004</t>
+          <t>23/07/2004</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4917,7 +4917,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=200000&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=405675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4932,7 +4932,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Proyecto de Optimización Planta Laja - PROFAL IV (e-seia)</t>
+          <t>Modificación al Plan Regulador de Laja (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4947,25 +4947,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>Ilustre Municipalidad de Laja</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>120000</v>
+        <v>3</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>02/10/2003</t>
+          <t>06/01/2004</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=164865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=200000&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4980,7 +4980,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Proyecto de Optimización Planta Laja - PROFAL IV (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4990,20 +4990,20 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>200</v>
+        <v>120000</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>02/10/2003</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5013,7 +5013,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=164865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5028,7 +5028,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Etapa II de Vertedero Industrial Controlado CMPC Celulosa S.A.-Planta Laja (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5038,30 +5038,30 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>28/05/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=87078&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Modificación al transporte de productos químicos entre Plantas Santa Fe y Laja (e-seia)</t>
+          <t>Etapa II de Vertedero Industrial Controlado CMPC Celulosa S.A.-Planta Laja (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5086,7 +5086,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5095,21 +5095,21 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>14/05/2003</t>
+          <t>28/05/2003</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=87078&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Saneamiento Básico Población Villa Laja Comuna de Laja</t>
+          <t>Modificación al transporte de productos químicos entre Plantas Santa Fe y Laja (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5134,12 +5134,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Laja</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -5147,7 +5147,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>24/07/2002</t>
+          <t>14/05/2003</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5157,7 +5157,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Uso benéfico de lodos provenientes de Plantas de Tratamiento de Aguas Servidas de Essbío S.A.</t>
+          <t>Saneamiento Básico Población Villa Laja Comuna de Laja</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5182,12 +5182,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
+          <t>Ilustre Municipalidad de Laja</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -5195,7 +5195,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>05/04/2002</t>
+          <t>24/07/2002</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5205,7 +5205,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5292&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Ampliación del Transporte de productos químicos entre plantas Santa Fé y Laja</t>
+          <t>Uso benéfico de lodos provenientes de Plantas de Tratamiento de Aguas Servidas de Essbío S.A.</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5230,12 +5230,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -5243,7 +5243,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>01/04/2002</t>
+          <t>05/04/2002</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5253,7 +5253,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5292&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5268,7 +5268,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Uso de Cenizas de Caldera de Biomasa de Central Termoeléctrica Laja como Mejorador de Suelos Agrícolas</t>
+          <t>Ampliación del Transporte de productos químicos entre plantas Santa Fé y Laja</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5283,7 +5283,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>AES GENER S.A</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F103" t="n">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>04/10/2001</t>
+          <t>01/04/2002</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5301,7 +5301,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4426&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5316,7 +5316,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Uso de Cenizas de Caldera de Biomasa de Central Termoeléctrica Laja como Mejorador de Suelos Agrícolas</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5326,30 +5326,30 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>AES GENER S.A</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>04/10/2001</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4426&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Agrocamping Chillico</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5374,30 +5374,30 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Sociedad Agrocamping Chillico Ltda.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>16/05/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3899&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Ampliación del Transporte de Productos Químicos entre Plantas Santa Fe y Laja</t>
+          <t>Agrocamping Chillico</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5427,15 +5427,15 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>Sociedad Agrocamping Chillico Ltda.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>30/04/2001</t>
+          <t>16/05/2001</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5445,7 +5445,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3860&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3899&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Estación de Servicio YPF Petrans Comuna de Laja.</t>
+          <t>Ampliación del Transporte de Productos Químicos entre Plantas Santa Fe y Laja</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5475,15 +5475,15 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Yeyssy Cuevas Troncoso</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>28/11/2000</t>
+          <t>30/04/2001</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5493,7 +5493,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3860&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte de Productos Químicos entre las Plantas Santa Fe y Laja</t>
+          <t>Estación de Servicio YPF Petrans Comuna de Laja.</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5523,15 +5523,15 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>Yeyssy Cuevas Troncoso</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>380</v>
+        <v>180</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>26/05/2000</t>
+          <t>28/11/2000</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Construcción Tratamiento de Aguas Servidas de San Rosendo-Laja</t>
+          <t>Transporte de Productos Químicos entre las Plantas Santa Fe y Laja</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5571,15 +5571,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>2600</v>
+        <v>380</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>21/01/2000</t>
+          <t>26/05/2000</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5589,7 +5589,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2656&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Instalación del Servicio de Agua Potable Rural Localidad Las Playas</t>
+          <t>Construcción Tratamiento de Aguas Servidas de San Rosendo-Laja</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5619,15 +5619,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Laja</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>300</v>
+        <v>2600</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>09/09/1999</t>
+          <t>21/01/2000</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5637,7 +5637,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2278&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2656&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Instalación del Servicio de Agua Potable Rural Localidad Las Playas</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5662,20 +5662,20 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>Ilustre Municipalidad de Laja</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>2500</v>
+        <v>300</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>09/09/1999</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5685,7 +5685,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2278&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Abastecimiento de Gas Natural al Sector Laja y Los Angeles</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5710,20 +5710,20 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Servicio de Gas Natural SGN Transportes S.A.</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>23/03/1999</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5733,7 +5733,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5748,43 +5748,91 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
+          <t>Abastecimiento de Gas Natural al Sector Laja y Los Angeles</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Octava</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Servicio de Gas Natural SGN Transportes S.A.</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>2100</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>23/03/1999</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1808&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>Laja</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
           <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="C114" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Interregional</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
         <is>
           <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
-      <c r="F113" t="n">
+      <c r="F114" t="n">
         <v>850000</v>
       </c>
-      <c r="G113" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>31/01/1996</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I113" t="inlineStr">
+      <c r="I114" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J113" t="inlineStr">
+      <c r="J114" t="inlineStr">
         <is>
           <t>Laja</t>
         </is>

--- a/data/Laja.xlsx
+++ b/data/Laja.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Laja.xlsx
+++ b/data/Laja.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J114"/>
+  <dimension ref="A1:J115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Proyecto de modificación para producir celulosa cruda en Planta Laja</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS QUÍMICAS Y RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -434,30 +434,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>Transportes Bretti Limitada</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>186000</v>
+        <v>12000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>24/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160195500&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160297313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Eólico Rinconada</t>
+          <t>Proyecto de modificación para producir celulosa cruda en Planta Laja</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Energía Eólica Rinconada SpA</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>365000</v>
+        <v>186000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>24/08/2021</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152728835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160195500&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,12 +520,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nueva Conexión y Ampliación S/E Celulosa Laja</t>
+          <t>Parque Eólico Rinconada</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CMPC PULP SpA</t>
+          <t>Energía Eólica Rinconada SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1560</v>
+        <v>365000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20/08/2021</t>
+          <t>24/08/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152952129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152728835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Subestación La Señoraza 220/66 kV</t>
+          <t>Nueva Conexión y Ampliación S/E Celulosa Laja</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SOCIEDAD AUSTRAL DE TRANSMISION TRONCAL S.A.</t>
+          <t>CMPC PULP SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>9829</v>
+        <v>1560</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>19/05/2021</t>
+          <t>20/08/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151668789&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152952129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -639,17 +639,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>23/04/2021</t>
+          <t>19/05/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151506773&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151668789&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>24/03/2021</t>
+          <t>23/04/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151190945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151506773&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Laja</t>
+          <t>Subestación La Señoraza 220/66 kV</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,11 +727,11 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ANDINA SOLAR 10 SPA</t>
+          <t>SOCIEDAD AUSTRAL DE TRANSMISION TRONCAL S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>10000</v>
+        <v>9829</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -740,12 +740,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151183851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151190945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Andina Solar 10 SPA</t>
+          <t>ANDINA SOLAR 10 SPA</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -783,17 +783,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>22/04/2019</t>
+          <t>24/03/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143033199&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151183851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>Parque Fotovoltaico Laja</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,30 +818,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>Andina Solar 10 SPA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>9903</v>
+        <v>10000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>22/04/2019</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143033199&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>20000</v>
+        <v>9903</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de Clorato de Sodio entre la región del Biobío y de la Araucanía</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Comercial e Industrial Erco Chile Ltda.</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>03/11/2016</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131858199&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Parque Eólico Buenaventura</t>
+          <t>Transporte Ferroviario de Clorato de Sodio entre la región del Biobío y de la Araucanía</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,20 +962,20 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Eólica La Esperanza S.A.</t>
+          <t>Comercial e Industrial Erco Chile Ltda.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>56000</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>21/09/2016</t>
+          <t>03/11/2016</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131760438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131858199&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Parque Eólico Buenaventura</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,20 +1010,20 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Eólica La Esperanza S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>10000</v>
+        <v>56000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>21/09/2016</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131760438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Parque Eólico El Maitén</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,20 +1058,20 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sonnedix Chile Holding SpA</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>22/02/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131182919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Parque Eólico El Maitén</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,20 +1106,20 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Sonnedix Chile Holding SpA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>10</v>
+        <v>40000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>22/02/2016</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131182919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>05/12/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>"AMPLIACION DE RUTAS PARA TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN TRANSPORTES TRANSVER LTDA"</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>17/11/2014</t>
+          <t>05/12/2014</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129535685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Parque Eólico Campo Lindo</t>
+          <t>"AMPLIACION DE RUTAS PARA TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN TRANSPORTES TRANSVER LTDA"</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,30 +1250,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Parque Eólico Campo Lindo SpA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>23/06/2014</t>
+          <t>17/11/2014</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129566652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129535685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Parque Eólico Campo Lindo</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,20 +1298,20 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Parque Eólico Campo Lindo SpA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1200</v>
+        <v>300000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>23/06/2014</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129566652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nuevo Cementerio Municipal de la Comuna de Laja</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,20 +1346,20 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Laja</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>13/08/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128446139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>Nuevo Cementerio Municipal de la Comuna de Laja</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,30 +1394,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>Ilustre Municipalidad de Laja</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>13/08/2013</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128446139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1650</v>
+        <v>200</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>18/08/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1787,21 +1787,21 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>04/08/2011</t>
+          <t>18/08/2011</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>04/08/2011</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión Eléctrica Laja1</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,30 +1922,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Eólico Monte Redondo SpA</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>10500</v>
+        <v>300</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>11/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4649336&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Sistema de Transmisión Eléctrica Laja1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,30 +1970,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Eólico Monte Redondo SpA</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>10500</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>11/06/2010</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4649336&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>22</v>
+        <v>377</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>DIA Transporte Ferroviario de Petróleo desde Talcahuano hasta Mininco, Regiones del Bío Bío y La Araucanía (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>TRANSAP S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>15/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3789791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2271,17 +2271,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>22/04/2009</t>
+          <t>15/05/2009</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3716506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3789791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,36 +2296,40 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Modernización de Planta Laja</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
+          <t>DIA Transporte Ferroviario de Petróleo desde Talcahuano hasta Mininco, Regiones del Bío Bío y La Araucanía (e-seia)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>TRANSAP S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>400000</v>
+        <v>0</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>13/11/2008</t>
+          <t>22/04/2009</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3341231&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3716506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2340,30 +2344,26 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Modernización de Planta Laja</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>300</v>
+        <v>400000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>13/11/2008</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2373,7 +2373,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3341231&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2411,17 +2411,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2451,25 +2451,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1650</v>
+        <v>300</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2484,7 +2484,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2499,15 +2499,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2517,7 +2517,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2555,17 +2555,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2595,15 +2595,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2613,7 +2613,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2643,15 +2643,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2676,7 +2676,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL DISEÑO DE PROYECTO MDL CENTRAL HIDROELÉCTRICA LAJA Modif-CH-Laja (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2686,30 +2686,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Eólico Monte Redondo SpA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>50000</v>
+        <v>20</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>07/03/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2763295&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2724,7 +2724,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>MODIFICACIONES AL DISEÑO DE PROYECTO MDL CENTRAL HIDROELÉCTRICA LAJA Modif-CH-Laja (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2734,20 +2734,20 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Eólico Monte Redondo SpA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>07/03/2008</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2757,7 +2757,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2763295&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2772,7 +2772,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2787,15 +2787,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>429</v>
+        <v>0</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2805,7 +2805,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2820,7 +2820,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2835,25 +2835,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Laja (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2878,30 +2878,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>José Pinto Albornoz</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>14/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2351661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Plan Regulador Comunal de Laja (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2926,30 +2926,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>José Pinto Albornoz</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>14/09/2007</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2351661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2964,7 +2964,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2979,25 +2979,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3035,17 +3035,17 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3060,7 +3060,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3075,25 +3075,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3108,7 +3108,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3123,25 +3123,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>26/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
+          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3179,17 +3179,17 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>14/02/2007</t>
+          <t>26/02/2007</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3204,7 +3204,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3219,15 +3219,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>14/02/2007</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3252,7 +3252,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3267,25 +3267,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Transportes Molina y Compañia Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>08/02/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3300,7 +3300,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3315,25 +3315,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Transportes Molina y Compañia Limitada</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>08/02/2007</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3348,7 +3348,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3371,17 +3371,17 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3396,7 +3396,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3411,25 +3411,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3444,7 +3444,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3459,25 +3459,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3507,25 +3507,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3540,7 +3540,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3563,17 +3563,17 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3588,7 +3588,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3603,25 +3603,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3636,7 +3636,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3651,25 +3651,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3684,7 +3684,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3699,25 +3699,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3732,7 +3732,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -3755,17 +3755,17 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3780,7 +3780,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3795,25 +3795,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>24/05/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Clorato de Sodio a las Plantas de CMPC Celulosa en las Regiones VIII y IX (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3843,15 +3843,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>28/04/2006</t>
+          <t>24/05/2006</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3861,7 +3861,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1422307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Clorato de Sodio a las Plantas de CMPC Celulosa en las Regiones VIII y IX (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3891,25 +3891,25 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>28/04/2006</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1422307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3947,17 +3947,17 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3972,7 +3972,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3987,25 +3987,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4035,25 +4035,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Joel Salamanca Saldaña</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>16/02/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4068,30 +4068,30 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>central hidroelectrica laja</t>
+          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Eólico Monte Redondo SpA</t>
+          <t>Joel Salamanca Saldaña</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>25000</v>
+        <v>200</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>26/01/2006</t>
+          <t>16/02/2006</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4101,7 +4101,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1373483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4116,30 +4116,30 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>central hidroelectrica laja</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Eólico Monte Redondo SpA</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>26/01/2006</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4149,7 +4149,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1373483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4179,15 +4179,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>3517</v>
+        <v>0</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4197,7 +4197,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4212,7 +4212,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4227,15 +4227,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4245,7 +4245,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4260,7 +4260,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4275,15 +4275,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4293,7 +4293,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4308,7 +4308,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de Soda Cáustica desde Oxy-Chile en Talcahuano, hasta las Plantas Laja, Santa Fe y Pacífico de CMPC Celulosa en las Regiones VIII y IX (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4323,15 +4323,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>TRANSAP S.A.</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>30/09/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4341,7 +4341,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1044218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Ferroviario de Soda Cáustica desde Oxy-Chile en Talcahuano, hasta las Plantas Laja, Santa Fe y Pacífico de CMPC Celulosa en las Regiones VIII y IX (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4371,15 +4371,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>TRANSAP S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>30/09/2005</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4389,7 +4389,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1044218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4419,11 +4419,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4452,7 +4452,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4467,11 +4467,11 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4500,7 +4500,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR COMUNAL LAJA (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4510,30 +4510,30 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>José Pinto Albornoz</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>02/08/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=655951&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4548,7 +4548,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR COMUNAL LAJA (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4558,30 +4558,30 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>José Pinto Albornoz</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>02/08/2005</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=655951&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4596,7 +4596,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4611,15 +4611,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4629,7 +4629,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4659,7 +4659,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -4667,17 +4667,17 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4707,15 +4707,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4725,7 +4725,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4740,7 +4740,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4755,25 +4755,25 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4803,15 +4803,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4821,7 +4821,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR LAJA (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4846,20 +4846,20 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Laja</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>27/07/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4869,7 +4869,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=408447&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cargas Clase 5.1 (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR LAJA (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4894,30 +4894,30 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>ABRIL Y SOTO LOGISTICA LIMITADA</t>
+          <t>Ilustre Municipalidad de Laja</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>109</v>
+        <v>3</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>23/07/2004</t>
+          <t>27/07/2004</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=405675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=408447&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4932,7 +4932,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador de Laja (e-seia)</t>
+          <t>Almacenaje y Transporte de Cargas Clase 5.1 (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4942,20 +4942,20 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Laja</t>
+          <t>ABRIL Y SOTO LOGISTICA LIMITADA</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>06/01/2004</t>
+          <t>23/07/2004</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4965,7 +4965,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=200000&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=405675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4980,7 +4980,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Proyecto de Optimización Planta Laja - PROFAL IV (e-seia)</t>
+          <t>Modificación al Plan Regulador de Laja (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4995,25 +4995,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>Ilustre Municipalidad de Laja</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>120000</v>
+        <v>3</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>02/10/2003</t>
+          <t>06/01/2004</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=164865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=200000&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5028,7 +5028,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Proyecto de Optimización Planta Laja - PROFAL IV (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5038,20 +5038,20 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>200</v>
+        <v>120000</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>02/10/2003</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5061,7 +5061,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=164865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Etapa II de Vertedero Industrial Controlado CMPC Celulosa S.A.-Planta Laja (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5086,30 +5086,30 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>28/05/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=87078&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Modificación al transporte de productos químicos entre Plantas Santa Fe y Laja (e-seia)</t>
+          <t>Etapa II de Vertedero Industrial Controlado CMPC Celulosa S.A.-Planta Laja (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5134,7 +5134,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5143,21 +5143,21 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>14/05/2003</t>
+          <t>28/05/2003</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=87078&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Saneamiento Básico Población Villa Laja Comuna de Laja</t>
+          <t>Modificación al transporte de productos químicos entre Plantas Santa Fe y Laja (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5182,12 +5182,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Laja</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -5195,7 +5195,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>24/07/2002</t>
+          <t>14/05/2003</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5205,7 +5205,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Uso benéfico de lodos provenientes de Plantas de Tratamiento de Aguas Servidas de Essbío S.A.</t>
+          <t>Saneamiento Básico Población Villa Laja Comuna de Laja</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5230,12 +5230,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
+          <t>Ilustre Municipalidad de Laja</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -5243,7 +5243,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>05/04/2002</t>
+          <t>24/07/2002</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5253,7 +5253,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5292&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5268,7 +5268,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Ampliación del Transporte de productos químicos entre plantas Santa Fé y Laja</t>
+          <t>Uso benéfico de lodos provenientes de Plantas de Tratamiento de Aguas Servidas de Essbío S.A.</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5278,12 +5278,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>01/04/2002</t>
+          <t>05/04/2002</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5301,7 +5301,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5292&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5316,7 +5316,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Uso de Cenizas de Caldera de Biomasa de Central Termoeléctrica Laja como Mejorador de Suelos Agrícolas</t>
+          <t>Ampliación del Transporte de productos químicos entre plantas Santa Fé y Laja</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>AES GENER S.A</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -5339,7 +5339,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>04/10/2001</t>
+          <t>01/04/2002</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5349,7 +5349,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4426&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Uso de Cenizas de Caldera de Biomasa de Central Termoeléctrica Laja como Mejorador de Suelos Agrícolas</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5374,30 +5374,30 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>AES GENER S.A</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>04/10/2001</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4426&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Agrocamping Chillico</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5422,30 +5422,30 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Sociedad Agrocamping Chillico Ltda.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>16/05/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3899&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Ampliación del Transporte de Productos Químicos entre Plantas Santa Fe y Laja</t>
+          <t>Agrocamping Chillico</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5475,15 +5475,15 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>Sociedad Agrocamping Chillico Ltda.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>30/04/2001</t>
+          <t>16/05/2001</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5493,7 +5493,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3860&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3899&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Estación de Servicio YPF Petrans Comuna de Laja.</t>
+          <t>Ampliación del Transporte de Productos Químicos entre Plantas Santa Fe y Laja</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5523,15 +5523,15 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Yeyssy Cuevas Troncoso</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>28/11/2000</t>
+          <t>30/04/2001</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3860&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte de Productos Químicos entre las Plantas Santa Fe y Laja</t>
+          <t>Estación de Servicio YPF Petrans Comuna de Laja.</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5571,15 +5571,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>Yeyssy Cuevas Troncoso</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>380</v>
+        <v>180</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>26/05/2000</t>
+          <t>28/11/2000</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5589,7 +5589,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Construcción Tratamiento de Aguas Servidas de San Rosendo-Laja</t>
+          <t>Transporte de Productos Químicos entre las Plantas Santa Fe y Laja</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5619,15 +5619,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>2600</v>
+        <v>380</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>21/01/2000</t>
+          <t>26/05/2000</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5637,7 +5637,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2656&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Instalación del Servicio de Agua Potable Rural Localidad Las Playas</t>
+          <t>Construcción Tratamiento de Aguas Servidas de San Rosendo-Laja</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5667,15 +5667,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Laja</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>300</v>
+        <v>2600</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>09/09/1999</t>
+          <t>21/01/2000</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5685,7 +5685,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2278&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2656&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Instalación del Servicio de Agua Potable Rural Localidad Las Playas</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5710,20 +5710,20 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>Ilustre Municipalidad de Laja</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2500</v>
+        <v>300</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>09/09/1999</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5733,7 +5733,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2278&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Abastecimiento de Gas Natural al Sector Laja y Los Angeles</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5758,20 +5758,20 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Servicio de Gas Natural SGN Transportes S.A.</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>23/03/1999</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5781,7 +5781,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5796,43 +5796,91 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
+          <t>Abastecimiento de Gas Natural al Sector Laja y Los Angeles</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Octava</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Servicio de Gas Natural SGN Transportes S.A.</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>2100</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>23/03/1999</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1808&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Laja</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
           <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Interregional</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
         <is>
           <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
-      <c r="F114" t="n">
+      <c r="F115" t="n">
         <v>850000</v>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>31/01/1996</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I114" t="inlineStr">
+      <c r="I115" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J114" t="inlineStr">
+      <c r="J115" t="inlineStr">
         <is>
           <t>Laja</t>
         </is>

--- a/data/Laja.xlsx
+++ b/data/Laja.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/10/2023</t>
+          <t>02/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
